--- a/dictionaries/core/2_1/2_1_non_rep.xlsx
+++ b/dictionaries/core/2_1/2_1_non_rep.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\03 LifeCycle\Git\ds-dictionaries\dictionaries\core\2_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16416" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="851">
   <si>
     <t>name</t>
   </si>
@@ -2565,13 +2570,16 @@
   </si>
   <si>
     <t>Child's born abroad</t>
+  </si>
+  <si>
+    <t>yep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2692,9 +2700,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2732,9 +2740,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2766,9 +2774,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2800,9 +2809,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2975,23 +2985,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D328"/>
   <sheetViews>
     <sheetView topLeftCell="A298" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C328" sqref="C328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="197.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3015,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3019,7 +3029,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3031,7 +3041,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3043,7 +3053,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3057,7 +3067,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3071,7 +3081,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3085,7 +3095,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3099,7 +3109,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3113,7 +3123,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3127,7 +3137,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3141,7 +3151,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3169,7 +3179,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3183,7 +3193,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3197,7 +3207,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3211,7 +3221,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3225,7 +3235,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3239,7 +3249,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3253,7 +3263,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3267,7 +3277,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3281,7 +3291,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3295,7 +3305,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3309,7 +3319,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3323,7 +3333,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3337,7 +3347,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3351,7 +3361,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3365,7 +3375,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3379,7 +3389,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3393,7 +3403,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3407,7 +3417,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3421,7 +3431,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3435,7 +3445,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3449,7 +3459,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3463,7 +3473,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3477,7 +3487,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3491,7 +3501,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3505,7 +3515,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3519,7 +3529,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3547,7 +3557,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3561,7 +3571,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3575,7 +3585,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3589,7 +3599,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3603,7 +3613,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3617,7 +3627,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3631,7 +3641,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3645,7 +3655,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3659,7 +3669,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3673,7 +3683,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3687,7 +3697,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3701,7 +3711,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3715,7 +3725,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3743,7 +3753,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3757,7 +3767,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3771,7 +3781,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3785,7 +3795,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3799,7 +3809,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3813,7 +3823,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3827,7 +3837,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3841,7 +3851,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3855,7 +3865,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3869,7 +3879,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3883,7 +3893,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3897,7 +3907,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3911,7 +3921,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3925,7 +3935,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3939,7 +3949,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3953,7 +3963,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3967,7 +3977,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3981,7 +3991,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3995,7 +4005,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -4009,7 +4019,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -4023,7 +4033,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -4037,7 +4047,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -4051,7 +4061,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -4065,7 +4075,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -4079,7 +4089,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -4093,7 +4103,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -4107,7 +4117,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -4121,7 +4131,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -4135,7 +4145,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -4149,7 +4159,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -4163,7 +4173,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -4177,7 +4187,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -4191,7 +4201,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -4205,7 +4215,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -4219,7 +4229,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -4233,7 +4243,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -4247,7 +4257,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -4261,7 +4271,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -4275,7 +4285,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -4289,7 +4299,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -4303,7 +4313,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -4317,7 +4327,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -4331,7 +4341,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -4345,7 +4355,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -4359,7 +4369,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -4373,7 +4383,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -4387,7 +4397,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -4401,7 +4411,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -4415,7 +4425,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -4429,7 +4439,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -4443,7 +4453,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
@@ -4457,7 +4467,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
@@ -4471,7 +4481,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
@@ -4485,7 +4495,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+    <row r="108" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
@@ -4499,7 +4509,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+    <row r="109" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
@@ -4513,7 +4523,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
+    <row r="110" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
@@ -4527,7 +4537,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
+    <row r="111" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
@@ -4541,7 +4551,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
+    <row r="112" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
@@ -4555,7 +4565,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
@@ -4569,7 +4579,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
@@ -4583,7 +4593,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
@@ -4597,7 +4607,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+    <row r="116" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>843</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -4625,7 +4635,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+    <row r="118" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -4639,7 +4649,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -4653,7 +4663,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -4667,7 +4677,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -4681,7 +4691,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -4695,7 +4705,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+    <row r="123" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -4709,7 +4719,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+    <row r="124" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -4723,7 +4733,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+    <row r="125" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -4737,7 +4747,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+    <row r="126" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -4751,7 +4761,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+    <row r="127" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -4765,7 +4775,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+    <row r="128" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -4779,7 +4789,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+    <row r="129" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -4793,7 +4803,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+    <row r="130" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4807,7 +4817,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+    <row r="131" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4821,7 +4831,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4835,7 +4845,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4849,7 +4859,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4863,7 +4873,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4877,7 +4887,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4891,7 +4901,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4905,7 +4915,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4919,7 +4929,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+    <row r="139" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4933,7 +4943,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+    <row r="140" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -4947,7 +4957,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+    <row r="141" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -4961,7 +4971,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+    <row r="142" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4975,7 +4985,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+    <row r="143" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -4989,7 +4999,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+    <row r="144" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -5003,7 +5013,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+    <row r="145" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -5017,7 +5027,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+    <row r="146" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -5031,7 +5041,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+    <row r="147" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -5045,7 +5055,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+    <row r="148" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -5059,7 +5069,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+    <row r="149" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -5073,7 +5083,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+    <row r="150" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -5087,7 +5097,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+    <row r="151" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -5101,7 +5111,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
+    <row r="152" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
+    <row r="153" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -5129,7 +5139,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+    <row r="154" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -5143,7 +5153,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
+    <row r="155" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -5157,7 +5167,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
+    <row r="156" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -5171,7 +5181,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+    <row r="157" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -5185,7 +5195,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -5199,7 +5209,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+    <row r="159" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -5213,7 +5223,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -5227,7 +5237,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+    <row r="161" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -5241,7 +5251,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
+    <row r="162" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -5255,7 +5265,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+    <row r="163" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -5269,7 +5279,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+    <row r="164" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -5283,7 +5293,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
+    <row r="165" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -5297,7 +5307,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+    <row r="166" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -5311,7 +5321,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+    <row r="167" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -5325,7 +5335,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+    <row r="168" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -5339,7 +5349,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -5353,7 +5363,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+    <row r="170" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -5367,7 +5377,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
+    <row r="171" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
+    <row r="172" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -5395,7 +5405,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+    <row r="173" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -5409,7 +5419,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+    <row r="174" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -5423,7 +5433,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+    <row r="175" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -5437,7 +5447,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+    <row r="176" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -5451,7 +5461,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+    <row r="177" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -5465,7 +5475,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+    <row r="178" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -5479,7 +5489,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -5493,7 +5503,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -5507,7 +5517,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -5521,7 +5531,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -5535,7 +5545,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -5549,7 +5559,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -5563,7 +5573,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
+    <row r="185" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -5577,7 +5587,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
+    <row r="186" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -5591,7 +5601,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+    <row r="187" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -5605,7 +5615,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+    <row r="188" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -5619,7 +5629,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
+    <row r="189" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -5633,7 +5643,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
+    <row r="190" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -5647,7 +5657,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
+    <row r="191" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -5661,7 +5671,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
+    <row r="192" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -5675,7 +5685,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+    <row r="193" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -5689,7 +5699,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+    <row r="194" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -5703,7 +5713,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1">
+    <row r="195" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -5717,7 +5727,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
+    <row r="196" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -5731,7 +5741,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
+    <row r="197" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -5745,7 +5755,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1">
+    <row r="198" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -5759,7 +5769,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1">
+    <row r="199" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -5773,7 +5783,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1">
+    <row r="200" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -5787,7 +5797,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1">
+    <row r="201" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -5801,7 +5811,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1">
+    <row r="202" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -5815,7 +5825,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1">
+    <row r="203" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -5829,7 +5839,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1">
+    <row r="204" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -5843,7 +5853,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
+    <row r="205" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -5857,7 +5867,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
+    <row r="206" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -5871,7 +5881,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
+    <row r="207" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -5885,7 +5895,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
+    <row r="208" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -5899,7 +5909,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
+    <row r="209" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -5913,7 +5923,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
+    <row r="210" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -5927,7 +5937,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
+    <row r="211" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -5941,7 +5951,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1">
+    <row r="212" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -5955,7 +5965,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1">
+    <row r="213" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -5969,7 +5979,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1">
+    <row r="214" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -5983,7 +5993,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1">
+    <row r="215" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -5997,7 +6007,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1">
+    <row r="216" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -6011,7 +6021,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1">
+    <row r="217" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -6025,7 +6035,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1">
+    <row r="218" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -6039,7 +6049,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1">
+    <row r="219" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -6053,7 +6063,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
+    <row r="220" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -6067,7 +6077,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
+    <row r="221" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -6081,7 +6091,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
+    <row r="222" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -6095,7 +6105,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
+    <row r="223" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -6109,7 +6119,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
+    <row r="224" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -6123,7 +6133,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1">
+    <row r="225" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -6137,7 +6147,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1">
+    <row r="226" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -6151,7 +6161,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1">
+    <row r="227" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -6165,7 +6175,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1">
+    <row r="228" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -6179,7 +6189,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1">
+    <row r="229" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -6193,7 +6203,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1">
+    <row r="230" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
+    <row r="231" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -6221,7 +6231,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
+    <row r="232" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -6235,7 +6245,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
+    <row r="233" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -6249,7 +6259,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
+    <row r="234" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -6263,7 +6273,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1">
+    <row r="235" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -6277,7 +6287,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1">
+    <row r="236" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -6291,7 +6301,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1">
+    <row r="237" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -6305,7 +6315,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1">
+    <row r="238" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -6319,7 +6329,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
+    <row r="239" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -6333,7 +6343,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
+    <row r="240" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -6347,7 +6357,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
+    <row r="241" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -6361,7 +6371,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
+    <row r="242" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -6375,7 +6385,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
+    <row r="243" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -6389,7 +6399,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
+    <row r="244" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -6403,7 +6413,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
+    <row r="245" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -6417,7 +6427,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
+    <row r="246" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -6431,7 +6441,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1">
+    <row r="247" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -6445,7 +6455,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
+    <row r="248" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -6459,7 +6469,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
+    <row r="249" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -6473,7 +6483,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
+    <row r="250" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -6487,7 +6497,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
+    <row r="251" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -6501,7 +6511,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1">
+    <row r="252" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -6515,7 +6525,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1">
+    <row r="253" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -6529,7 +6539,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1">
+    <row r="254" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -6543,7 +6553,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1">
+    <row r="255" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -6557,7 +6567,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1">
+    <row r="256" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -6571,7 +6581,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1">
+    <row r="257" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -6585,7 +6595,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
+    <row r="258" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -6599,7 +6609,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
+    <row r="259" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -6613,7 +6623,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
+    <row r="260" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
+    <row r="261" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -6641,7 +6651,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1">
+    <row r="262" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -6655,7 +6665,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1">
+    <row r="263" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -6669,7 +6679,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1">
+    <row r="264" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -6683,7 +6693,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1">
+    <row r="265" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -6697,7 +6707,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1">
+    <row r="266" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -6711,7 +6721,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1">
+    <row r="267" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -6725,7 +6735,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1">
+    <row r="268" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -6739,7 +6749,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1">
+    <row r="269" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -6753,7 +6763,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
+    <row r="270" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -6767,7 +6777,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
+    <row r="271" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -6781,7 +6791,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
+    <row r="272" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -6795,7 +6805,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
+    <row r="273" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -6809,7 +6819,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
+    <row r="274" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -6823,7 +6833,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1">
+    <row r="275" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -6837,7 +6847,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1">
+    <row r="276" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -6851,7 +6861,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1">
+    <row r="277" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -6865,7 +6875,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1">
+    <row r="278" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -6879,7 +6889,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
+    <row r="279" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -6893,7 +6903,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1">
+    <row r="280" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -6907,7 +6917,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
+    <row r="281" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -6921,7 +6931,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
+    <row r="282" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -6935,7 +6945,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1">
+    <row r="283" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -6949,7 +6959,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1">
+    <row r="284" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -6963,7 +6973,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1">
+    <row r="285" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -6977,7 +6987,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
+    <row r="286" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -6991,7 +7001,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
+    <row r="287" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -7005,7 +7015,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
+    <row r="288" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -7019,7 +7029,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
+    <row r="289" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -7033,7 +7043,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1">
+    <row r="290" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
@@ -7047,7 +7057,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1">
+    <row r="291" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -7061,7 +7071,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1">
+    <row r="292" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
@@ -7075,7 +7085,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
+    <row r="293" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -7089,7 +7099,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
+    <row r="294" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -7103,7 +7113,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
+    <row r="295" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -7117,7 +7127,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1">
+    <row r="296" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
@@ -7131,7 +7141,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1">
+    <row r="297" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -7145,7 +7155,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1">
+    <row r="298" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
@@ -7159,7 +7169,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1">
+    <row r="299" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -7173,7 +7183,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1">
+    <row r="300" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -7187,7 +7197,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1">
+    <row r="301" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -7201,7 +7211,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1">
+    <row r="302" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
@@ -7215,7 +7225,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1">
+    <row r="303" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
@@ -7229,7 +7239,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
+    <row r="304" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
@@ -7243,7 +7253,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
+    <row r="305" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
@@ -7257,7 +7267,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1">
+    <row r="306" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
@@ -7271,7 +7281,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1">
+    <row r="307" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
@@ -7285,7 +7295,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1">
+    <row r="308" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
@@ -7299,7 +7309,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1">
+    <row r="309" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
@@ -7313,7 +7323,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1">
+    <row r="310" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
@@ -7327,7 +7337,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1">
+    <row r="311" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
@@ -7341,7 +7351,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1">
+    <row r="312" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
@@ -7355,7 +7365,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1">
+    <row r="313" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>104</v>
       </c>
@@ -7369,7 +7379,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1">
+    <row r="314" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>824</v>
       </c>
@@ -7383,7 +7393,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1">
+    <row r="315" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>823</v>
       </c>
@@ -7397,7 +7407,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1">
+    <row r="316" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>825</v>
       </c>
@@ -7411,7 +7421,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1">
+    <row r="317" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>826</v>
       </c>
@@ -7425,7 +7435,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="318" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="318" spans="1:4" s="7" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>827</v>
       </c>
@@ -7439,7 +7449,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="319" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="319" spans="1:4" s="7" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>828</v>
       </c>
@@ -7453,7 +7463,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="320" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="320" spans="1:4" s="7" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>829</v>
       </c>
@@ -7467,7 +7477,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="321" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="321" spans="1:4" s="7" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>830</v>
       </c>
@@ -7481,7 +7491,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="322" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="322" spans="1:4" s="7" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
         <v>831</v>
       </c>
@@ -7495,7 +7505,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="323" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="323" spans="1:4" s="7" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
         <v>832</v>
       </c>
@@ -7509,7 +7519,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="324" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="324" spans="1:4" s="7" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7" t="s">
         <v>833</v>
       </c>
@@ -7523,7 +7533,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="325" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="325" spans="1:4" s="7" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7" t="s">
         <v>834</v>
       </c>
@@ -7537,7 +7547,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1">
+    <row r="326" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>844</v>
       </c>
@@ -7551,7 +7561,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1">
+    <row r="327" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>846</v>
       </c>
@@ -7565,7 +7575,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1">
+    <row r="328" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>848</v>
       </c>
@@ -7588,24 +7598,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D316" sqref="D316"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>651</v>
       </c>
@@ -7619,7 +7629,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -7633,7 +7643,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -7647,7 +7657,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7661,7 +7671,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -7675,7 +7685,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -7689,7 +7699,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -7703,7 +7713,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -7717,7 +7727,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -7731,7 +7741,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -7745,7 +7755,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -7759,7 +7769,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -7773,7 +7783,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -7787,7 +7797,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -7801,7 +7811,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -7815,7 +7825,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -7829,7 +7839,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -7843,7 +7853,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -7857,7 +7867,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -7871,7 +7881,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -7885,7 +7895,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -7899,7 +7909,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -7913,7 +7923,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -7927,7 +7937,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -7941,7 +7951,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -7955,7 +7965,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -7969,7 +7979,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -7983,7 +7993,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -7997,7 +8007,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -8011,7 +8021,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -8025,7 +8035,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -8039,7 +8049,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -8053,7 +8063,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -8067,7 +8077,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -8081,7 +8091,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -8095,7 +8105,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -8109,7 +8119,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -8123,7 +8133,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -8137,7 +8147,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -8151,7 +8161,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -8165,7 +8175,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -8179,7 +8189,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -8193,7 +8203,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -8207,7 +8217,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
@@ -8221,7 +8231,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
@@ -8235,7 +8245,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
@@ -8249,7 +8259,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
@@ -8263,7 +8273,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>14</v>
       </c>
@@ -8277,7 +8287,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -8291,7 +8301,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -8305,7 +8315,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>20</v>
       </c>
@@ -8319,7 +8329,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>20</v>
       </c>
@@ -8333,7 +8343,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -8347,7 +8357,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>23</v>
       </c>
@@ -8361,7 +8371,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>23</v>
       </c>
@@ -8375,7 +8385,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>23</v>
       </c>
@@ -8389,7 +8399,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>25</v>
       </c>
@@ -8403,7 +8413,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -8417,7 +8427,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>26</v>
       </c>
@@ -8431,7 +8441,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>26</v>
       </c>
@@ -8445,7 +8455,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
@@ -8459,7 +8469,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
@@ -8473,7 +8483,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>26</v>
       </c>
@@ -8487,7 +8497,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
@@ -8501,7 +8511,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>27</v>
       </c>
@@ -8515,7 +8525,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>28</v>
       </c>
@@ -8529,7 +8539,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>28</v>
       </c>
@@ -8543,7 +8553,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>29</v>
       </c>
@@ -8557,7 +8567,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>29</v>
       </c>
@@ -8571,7 +8581,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>30</v>
       </c>
@@ -8585,7 +8595,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>30</v>
       </c>
@@ -8599,7 +8609,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>31</v>
       </c>
@@ -8613,7 +8623,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>31</v>
       </c>
@@ -8627,7 +8637,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>32</v>
       </c>
@@ -8641,7 +8651,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>32</v>
       </c>
@@ -8655,7 +8665,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>33</v>
       </c>
@@ -8669,7 +8679,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>33</v>
       </c>
@@ -8683,7 +8693,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>34</v>
       </c>
@@ -8697,7 +8707,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>34</v>
       </c>
@@ -8711,7 +8721,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>35</v>
       </c>
@@ -8725,7 +8735,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>35</v>
       </c>
@@ -8739,7 +8749,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>36</v>
       </c>
@@ -8753,7 +8763,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -8767,7 +8777,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>37</v>
       </c>
@@ -8781,7 +8791,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>37</v>
       </c>
@@ -8795,7 +8805,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>37</v>
       </c>
@@ -8809,7 +8819,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>38</v>
       </c>
@@ -8823,7 +8833,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>38</v>
       </c>
@@ -8837,7 +8847,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>39</v>
       </c>
@@ -8851,7 +8861,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>39</v>
       </c>
@@ -8865,7 +8875,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>39</v>
       </c>
@@ -8879,7 +8889,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>40</v>
       </c>
@@ -8893,7 +8903,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>40</v>
       </c>
@@ -8907,7 +8917,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>41</v>
       </c>
@@ -8921,7 +8931,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>41</v>
       </c>
@@ -8935,7 +8945,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>41</v>
       </c>
@@ -8949,7 +8959,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>41</v>
       </c>
@@ -8963,7 +8973,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>41</v>
       </c>
@@ -8977,7 +8987,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>42</v>
       </c>
@@ -8991,7 +9001,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>42</v>
       </c>
@@ -9005,7 +9015,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>43</v>
       </c>
@@ -9019,7 +9029,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>43</v>
       </c>
@@ -9033,7 +9043,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>43</v>
       </c>
@@ -9047,7 +9057,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>43</v>
       </c>
@@ -9061,7 +9071,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>44</v>
       </c>
@@ -9075,7 +9085,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>44</v>
       </c>
@@ -9089,7 +9099,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>45</v>
       </c>
@@ -9103,7 +9113,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+    <row r="108" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>45</v>
       </c>
@@ -9117,7 +9127,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+    <row r="109" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>46</v>
       </c>
@@ -9131,7 +9141,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
+    <row r="110" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>46</v>
       </c>
@@ -9145,7 +9155,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
+    <row r="111" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>47</v>
       </c>
@@ -9159,7 +9169,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
+    <row r="112" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>47</v>
       </c>
@@ -9173,7 +9183,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>47</v>
       </c>
@@ -9187,7 +9197,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>47</v>
       </c>
@@ -9201,7 +9211,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>47</v>
       </c>
@@ -9215,7 +9225,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+    <row r="116" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>48</v>
       </c>
@@ -9229,7 +9239,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>48</v>
       </c>
@@ -9243,7 +9253,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+    <row r="118" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>49</v>
       </c>
@@ -9257,7 +9267,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>49</v>
       </c>
@@ -9271,7 +9281,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>50</v>
       </c>
@@ -9285,7 +9295,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>50</v>
       </c>
@@ -9299,7 +9309,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>51</v>
       </c>
@@ -9313,7 +9323,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+    <row r="123" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>51</v>
       </c>
@@ -9327,7 +9337,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+    <row r="124" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>51</v>
       </c>
@@ -9341,7 +9351,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+    <row r="125" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>51</v>
       </c>
@@ -9355,7 +9365,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+    <row r="126" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>51</v>
       </c>
@@ -9369,7 +9379,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+    <row r="127" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>51</v>
       </c>
@@ -9383,7 +9393,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+    <row r="128" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>52</v>
       </c>
@@ -9397,7 +9407,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+    <row r="129" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>52</v>
       </c>
@@ -9411,7 +9421,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+    <row r="130" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>52</v>
       </c>
@@ -9425,7 +9435,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+    <row r="131" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>52</v>
       </c>
@@ -9439,7 +9449,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>52</v>
       </c>
@@ -9453,7 +9463,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -9467,7 +9477,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>53</v>
       </c>
@@ -9478,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>54</v>
       </c>
@@ -9495,7 +9505,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>54</v>
       </c>
@@ -9509,7 +9519,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>54</v>
       </c>
@@ -9523,7 +9533,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>55</v>
       </c>
@@ -9537,7 +9547,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+    <row r="139" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>55</v>
       </c>
@@ -9551,7 +9561,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+    <row r="140" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>55</v>
       </c>
@@ -9565,7 +9575,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+    <row r="141" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>55</v>
       </c>
@@ -9579,7 +9589,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+    <row r="142" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>56</v>
       </c>
@@ -9593,7 +9603,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+    <row r="143" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>56</v>
       </c>
@@ -9607,7 +9617,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+    <row r="144" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>56</v>
       </c>
@@ -9621,7 +9631,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+    <row r="145" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>57</v>
       </c>
@@ -9635,7 +9645,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+    <row r="146" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>57</v>
       </c>
@@ -9649,7 +9659,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+    <row r="147" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>57</v>
       </c>
@@ -9663,7 +9673,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+    <row r="148" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>58</v>
       </c>
@@ -9677,7 +9687,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+    <row r="149" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>58</v>
       </c>
@@ -9691,7 +9701,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+    <row r="150" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>58</v>
       </c>
@@ -9705,7 +9715,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+    <row r="151" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>59</v>
       </c>
@@ -9719,7 +9729,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
+    <row r="152" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>59</v>
       </c>
@@ -9733,7 +9743,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
+    <row r="153" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>59</v>
       </c>
@@ -9747,7 +9757,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+    <row r="154" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>59</v>
       </c>
@@ -9761,7 +9771,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
+    <row r="155" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>63</v>
       </c>
@@ -9775,7 +9785,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
+    <row r="156" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>63</v>
       </c>
@@ -9789,7 +9799,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+    <row r="157" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>65</v>
       </c>
@@ -9803,7 +9813,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>65</v>
       </c>
@@ -9817,7 +9827,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+    <row r="159" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>65</v>
       </c>
@@ -9831,7 +9841,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>65</v>
       </c>
@@ -9845,7 +9855,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+    <row r="161" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>67</v>
       </c>
@@ -9859,7 +9869,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
+    <row r="162" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>67</v>
       </c>
@@ -9873,7 +9883,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+    <row r="163" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>67</v>
       </c>
@@ -9887,7 +9897,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+    <row r="164" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>68</v>
       </c>
@@ -9901,7 +9911,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
+    <row r="165" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>68</v>
       </c>
@@ -9915,7 +9925,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+    <row r="166" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>68</v>
       </c>
@@ -9929,7 +9939,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+    <row r="167" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>68</v>
       </c>
@@ -9943,7 +9953,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+    <row r="168" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>70</v>
       </c>
@@ -9957,7 +9967,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>70</v>
       </c>
@@ -9971,7 +9981,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+    <row r="170" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>70</v>
       </c>
@@ -9985,7 +9995,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
+    <row r="171" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>71</v>
       </c>
@@ -9999,7 +10009,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
+    <row r="172" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>71</v>
       </c>
@@ -10013,7 +10023,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+    <row r="173" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>71</v>
       </c>
@@ -10027,7 +10037,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+    <row r="174" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>71</v>
       </c>
@@ -10041,7 +10051,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+    <row r="175" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>72</v>
       </c>
@@ -10055,7 +10065,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+    <row r="176" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>72</v>
       </c>
@@ -10069,7 +10079,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+    <row r="177" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>72</v>
       </c>
@@ -10083,7 +10093,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+    <row r="178" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>72</v>
       </c>
@@ -10097,7 +10107,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>73</v>
       </c>
@@ -10111,7 +10121,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>73</v>
       </c>
@@ -10125,7 +10135,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>74</v>
       </c>
@@ -10139,7 +10149,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>74</v>
       </c>
@@ -10153,7 +10163,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>75</v>
       </c>
@@ -10167,7 +10177,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>75</v>
       </c>
@@ -10181,7 +10191,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
+    <row r="185" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>76</v>
       </c>
@@ -10195,7 +10205,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
+    <row r="186" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>76</v>
       </c>
@@ -10209,7 +10219,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+    <row r="187" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>76</v>
       </c>
@@ -10223,7 +10233,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+    <row r="188" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>77</v>
       </c>
@@ -10237,7 +10247,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
+    <row r="189" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>77</v>
       </c>
@@ -10251,7 +10261,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
+    <row r="190" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>77</v>
       </c>
@@ -10265,7 +10275,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
+    <row r="191" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>77</v>
       </c>
@@ -10279,7 +10289,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
+    <row r="192" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>81</v>
       </c>
@@ -10293,7 +10303,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+    <row r="193" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>81</v>
       </c>
@@ -10307,7 +10317,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+    <row r="194" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>82</v>
       </c>
@@ -10321,7 +10331,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1">
+    <row r="195" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>82</v>
       </c>
@@ -10335,7 +10345,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
+    <row r="196" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>83</v>
       </c>
@@ -10349,7 +10359,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
+    <row r="197" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>83</v>
       </c>
@@ -10363,7 +10373,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1">
+    <row r="198" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>83</v>
       </c>
@@ -10377,7 +10387,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1">
+    <row r="199" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>91</v>
       </c>
@@ -10391,7 +10401,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1">
+    <row r="200" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>91</v>
       </c>
@@ -10405,7 +10415,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1">
+    <row r="201" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>91</v>
       </c>
@@ -10419,7 +10429,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1">
+    <row r="202" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>93</v>
       </c>
@@ -10433,7 +10443,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1">
+    <row r="203" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>93</v>
       </c>
@@ -10447,7 +10457,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1">
+    <row r="204" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>94</v>
       </c>
@@ -10461,7 +10471,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
+    <row r="205" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>94</v>
       </c>
@@ -10475,7 +10485,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
+    <row r="206" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>95</v>
       </c>
@@ -10489,7 +10499,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
+    <row r="207" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>95</v>
       </c>
@@ -10503,7 +10513,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
+    <row r="208" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>96</v>
       </c>
@@ -10517,7 +10527,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
+    <row r="209" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>96</v>
       </c>
@@ -10531,7 +10541,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
+    <row r="210" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>96</v>
       </c>
@@ -10545,7 +10555,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
+    <row r="211" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>96</v>
       </c>
@@ -10559,7 +10569,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1">
+    <row r="212" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>96</v>
       </c>
@@ -10573,7 +10583,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1">
+    <row r="213" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>97</v>
       </c>
@@ -10587,7 +10597,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1">
+    <row r="214" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>97</v>
       </c>
@@ -10601,7 +10611,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1">
+    <row r="215" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>101</v>
       </c>
@@ -10615,7 +10625,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1">
+    <row r="216" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>101</v>
       </c>
@@ -10629,7 +10639,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1">
+    <row r="217" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>115</v>
       </c>
@@ -10643,7 +10653,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1">
+    <row r="218" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>115</v>
       </c>
@@ -10657,7 +10667,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1">
+    <row r="219" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>115</v>
       </c>
@@ -10671,7 +10681,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
+    <row r="220" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>115</v>
       </c>
@@ -10685,7 +10695,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
+    <row r="221" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>115</v>
       </c>
@@ -10699,7 +10709,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
+    <row r="222" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>843</v>
       </c>
@@ -10713,7 +10723,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
+    <row r="223" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>843</v>
       </c>
@@ -10727,7 +10737,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
+    <row r="224" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>843</v>
       </c>
@@ -10741,7 +10751,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1">
+    <row r="225" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>843</v>
       </c>
@@ -10755,7 +10765,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1">
+    <row r="226" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>843</v>
       </c>
@@ -10769,7 +10779,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1">
+    <row r="227" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>116</v>
       </c>
@@ -10783,7 +10793,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1">
+    <row r="228" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>116</v>
       </c>
@@ -10797,7 +10807,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1">
+    <row r="229" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>116</v>
       </c>
@@ -10811,7 +10821,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1">
+    <row r="230" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>116</v>
       </c>
@@ -10825,7 +10835,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
+    <row r="231" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>116</v>
       </c>
@@ -10839,7 +10849,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
+    <row r="232" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>116</v>
       </c>
@@ -10853,7 +10863,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
+    <row r="233" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>116</v>
       </c>
@@ -10867,7 +10877,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
+    <row r="234" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>116</v>
       </c>
@@ -10881,7 +10891,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1">
+    <row r="235" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>116</v>
       </c>
@@ -10895,7 +10905,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1">
+    <row r="236" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>116</v>
       </c>
@@ -10909,7 +10919,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1">
+    <row r="237" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>117</v>
       </c>
@@ -10923,7 +10933,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1">
+    <row r="238" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>117</v>
       </c>
@@ -10937,7 +10947,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
+    <row r="239" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>117</v>
       </c>
@@ -10951,7 +10961,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
+    <row r="240" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>117</v>
       </c>
@@ -10965,7 +10975,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
+    <row r="241" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>117</v>
       </c>
@@ -10979,7 +10989,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
+    <row r="242" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>117</v>
       </c>
@@ -10993,7 +11003,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
+    <row r="243" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>117</v>
       </c>
@@ -11007,7 +11017,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
+    <row r="244" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>117</v>
       </c>
@@ -11021,7 +11031,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
+    <row r="245" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>117</v>
       </c>
@@ -11035,7 +11045,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
+    <row r="246" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>117</v>
       </c>
@@ -11049,7 +11059,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1">
+    <row r="247" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>120</v>
       </c>
@@ -11063,7 +11073,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
+    <row r="248" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>120</v>
       </c>
@@ -11077,7 +11087,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
+    <row r="249" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>120</v>
       </c>
@@ -11091,7 +11101,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
+    <row r="250" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>120</v>
       </c>
@@ -11105,7 +11115,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
+    <row r="251" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>120</v>
       </c>
@@ -11119,7 +11129,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1">
+    <row r="252" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>120</v>
       </c>
@@ -11133,7 +11143,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1">
+    <row r="253" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>120</v>
       </c>
@@ -11147,7 +11157,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1">
+    <row r="254" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>120</v>
       </c>
@@ -11161,7 +11171,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1">
+    <row r="255" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>120</v>
       </c>
@@ -11175,7 +11185,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1">
+    <row r="256" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>120</v>
       </c>
@@ -11189,7 +11199,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1">
+    <row r="257" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>120</v>
       </c>
@@ -11203,7 +11213,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
+    <row r="258" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>120</v>
       </c>
@@ -11217,7 +11227,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
+    <row r="259" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>120</v>
       </c>
@@ -11231,7 +11241,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
+    <row r="260" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>120</v>
       </c>
@@ -11245,7 +11255,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
+    <row r="261" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>120</v>
       </c>
@@ -11259,7 +11269,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1">
+    <row r="262" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>120</v>
       </c>
@@ -11273,7 +11283,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1">
+    <row r="263" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>174</v>
       </c>
@@ -11287,7 +11297,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1">
+    <row r="264" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>174</v>
       </c>
@@ -11301,7 +11311,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1">
+    <row r="265" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>175</v>
       </c>
@@ -11315,7 +11325,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1">
+    <row r="266" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>175</v>
       </c>
@@ -11329,7 +11339,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1">
+    <row r="267" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>182</v>
       </c>
@@ -11343,7 +11353,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1">
+    <row r="268" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>182</v>
       </c>
@@ -11357,7 +11367,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1">
+    <row r="269" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>182</v>
       </c>
@@ -11371,7 +11381,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
+    <row r="270" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>182</v>
       </c>
@@ -11385,7 +11395,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
+    <row r="271" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>182</v>
       </c>
@@ -11399,7 +11409,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
+    <row r="272" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>182</v>
       </c>
@@ -11413,7 +11423,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
+    <row r="273" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>181</v>
       </c>
@@ -11427,7 +11437,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
+    <row r="274" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>181</v>
       </c>
@@ -11441,7 +11451,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1">
+    <row r="275" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>181</v>
       </c>
@@ -11455,7 +11465,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1">
+    <row r="276" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>181</v>
       </c>
@@ -11469,7 +11479,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1">
+    <row r="277" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>181</v>
       </c>
@@ -11483,7 +11493,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1">
+    <row r="278" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>181</v>
       </c>
@@ -11497,7 +11507,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
+    <row r="279" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>184</v>
       </c>
@@ -11511,7 +11521,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1">
+    <row r="280" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>184</v>
       </c>
@@ -11525,7 +11535,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
+    <row r="281" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>184</v>
       </c>
@@ -11539,7 +11549,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
+    <row r="282" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>185</v>
       </c>
@@ -11553,7 +11563,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1">
+    <row r="283" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>185</v>
       </c>
@@ -11567,7 +11577,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1">
+    <row r="284" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>185</v>
       </c>
@@ -11581,7 +11591,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1">
+    <row r="285" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>185</v>
       </c>
@@ -11595,7 +11605,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
+    <row r="286" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>185</v>
       </c>
@@ -11609,7 +11619,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
+    <row r="287" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>220</v>
       </c>
@@ -11623,7 +11633,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
+    <row r="288" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>220</v>
       </c>
@@ -11637,7 +11647,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
+    <row r="289" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>220</v>
       </c>
@@ -11651,7 +11661,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1">
+    <row r="290" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>240</v>
       </c>
@@ -11665,7 +11675,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1">
+    <row r="291" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>240</v>
       </c>
@@ -11679,7 +11689,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1">
+    <row r="292" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>240</v>
       </c>
@@ -11693,7 +11703,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
+    <row r="293" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>260</v>
       </c>
@@ -11707,7 +11717,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
+    <row r="294" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>260</v>
       </c>
@@ -11721,7 +11731,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
+    <row r="295" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>260</v>
       </c>
@@ -11735,7 +11745,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1">
+    <row r="296" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>309</v>
       </c>
@@ -11749,7 +11759,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1">
+    <row r="297" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>309</v>
       </c>
@@ -11763,7 +11773,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1">
+    <row r="298" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>310</v>
       </c>
@@ -11777,7 +11787,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1">
+    <row r="299" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>310</v>
       </c>
@@ -11791,7 +11801,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1">
+    <row r="300" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>311</v>
       </c>
@@ -11805,7 +11815,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1">
+    <row r="301" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>311</v>
       </c>
@@ -11819,7 +11829,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1">
+    <row r="302" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>824</v>
       </c>
@@ -11833,7 +11843,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1">
+    <row r="303" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>824</v>
       </c>
@@ -11847,7 +11857,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
+    <row r="304" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>825</v>
       </c>
@@ -11861,7 +11871,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
+    <row r="305" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>825</v>
       </c>
@@ -11875,7 +11885,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1">
+    <row r="306" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>827</v>
       </c>
@@ -11889,7 +11899,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1">
+    <row r="307" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>827</v>
       </c>
@@ -11903,7 +11913,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1">
+    <row r="308" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>828</v>
       </c>
@@ -11917,7 +11927,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1">
+    <row r="309" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>828</v>
       </c>
@@ -11931,7 +11941,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1">
+    <row r="310" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>829</v>
       </c>
@@ -11945,7 +11955,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1">
+    <row r="311" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>829</v>
       </c>
@@ -11959,7 +11969,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1">
+    <row r="312" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>830</v>
       </c>
@@ -11973,7 +11983,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1">
+    <row r="313" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>830</v>
       </c>
@@ -11987,7 +11997,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1">
+    <row r="314" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>831</v>
       </c>
@@ -12001,7 +12011,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1">
+    <row r="315" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>831</v>
       </c>
@@ -12015,7 +12025,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1">
+    <row r="316" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>832</v>
       </c>
@@ -12029,7 +12039,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1">
+    <row r="317" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>832</v>
       </c>
@@ -12043,7 +12053,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1">
+    <row r="318" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
         <v>833</v>
       </c>
@@ -12057,7 +12067,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1">
+    <row r="319" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
         <v>833</v>
       </c>
@@ -12071,7 +12081,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1">
+    <row r="320" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
         <v>834</v>
       </c>
@@ -12085,7 +12095,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1">
+    <row r="321" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7" t="s">
         <v>834</v>
       </c>
@@ -12099,7 +12109,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1">
+    <row r="322" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>844</v>
       </c>
@@ -12113,7 +12123,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1">
+    <row r="323" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>844</v>
       </c>
@@ -12127,7 +12137,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1">
+    <row r="324" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>846</v>
       </c>
@@ -12141,7 +12151,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1">
+    <row r="325" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>846</v>
       </c>
@@ -12155,7 +12165,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1">
+    <row r="326" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>848</v>
       </c>
@@ -12169,7 +12179,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1">
+    <row r="327" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>848</v>
       </c>
